--- a/HW2/student.xlsx
+++ b/HW2/student.xlsx
@@ -447,15 +447,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1" ht="12.8" customHeight="1" s="2">
+    <row r="1" ht="12.75" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
         <is>
           <t>id</t>
@@ -497,7 +497,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="12.8" customHeight="1" s="2">
+    <row r="2" ht="12.75" customHeight="1" s="2">
       <c r="A2" s="3" t="n">
         <v>20140001</v>
       </c>
@@ -521,8 +521,13 @@
       <c r="G2" s="3" t="n">
         <v>40.39</v>
       </c>
-    </row>
-    <row r="3" ht="12.8" customHeight="1" s="2">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="12.75" customHeight="1" s="2">
       <c r="A3" s="3" t="n">
         <v>20140002</v>
       </c>
@@ -546,8 +551,13 @@
       <c r="G3" s="3" t="n">
         <v>53.02</v>
       </c>
-    </row>
-    <row r="4" ht="12.8" customHeight="1" s="2">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="12.75" customHeight="1" s="2">
       <c r="A4" s="3" t="n">
         <v>20140003</v>
       </c>
@@ -571,8 +581,13 @@
       <c r="G4" s="3" t="n">
         <v>34.74</v>
       </c>
-    </row>
-    <row r="5" ht="12.8" customHeight="1" s="2">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="12.75" customHeight="1" s="2">
       <c r="A5" s="3" t="n">
         <v>20140004</v>
       </c>
@@ -595,6 +610,251 @@
       </c>
       <c r="G5" s="3" t="n">
         <v>82.38</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="12.75" customHeight="1" s="2">
+      <c r="A6" s="3" t="n">
+        <v>20200988</v>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Hajin</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>88</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="12.75" customHeight="1" s="2">
+      <c r="A7" s="3" t="n">
+        <v>20150001</v>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>Isla</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>71</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>51</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>54</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>58.51000000000001</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="12.75" customHeight="1" s="2">
+      <c r="A8" s="3" t="n">
+        <v>20204920</v>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>Amelia</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>42</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>38.13</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="12.75" customHeight="1" s="2">
+      <c r="A9" s="3" t="n">
+        <v>20201942</v>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>gildong</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>44</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="12.75" customHeight="1" s="2">
+      <c r="A10" s="3" t="n">
+        <v>20200042</v>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>sman</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>99</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>56</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>61.64</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="12.75" customHeight="1" s="2">
+      <c r="A11" s="3" t="n">
+        <v>20200123</v>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>28.23</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="12.75" customHeight="1" s="2">
+      <c r="A12" s="3" t="n">
+        <v>20208080</v>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="12.75" customHeight="1" s="2">
+      <c r="A13" s="3" t="n">
+        <v>20208402</v>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>three</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/HW2/student.xlsx
+++ b/HW2/student.xlsx
@@ -447,13 +447,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
@@ -499,119 +499,119 @@
     </row>
     <row r="2" ht="12.75" customHeight="1" s="2">
       <c r="A2" s="3" t="n">
-        <v>20140001</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>Sophia</t>
+          <t>minji</t>
         </is>
       </c>
       <c r="C2" s="3" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>40.39</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>B0</t>
+        <v>10.9</v>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>A0</t>
         </is>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1" s="2">
       <c r="A3" s="3" t="n">
-        <v>20140002</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>Emily</t>
+          <t>suji</t>
         </is>
       </c>
       <c r="C3" s="3" t="n">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>53.02</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>B0</t>
+        <v>9.609999999999999</v>
+      </c>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>A0</t>
         </is>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1" s="2">
       <c r="A4" s="3" t="n">
-        <v>20140003</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Lily</t>
+          <t>hajin</t>
         </is>
       </c>
       <c r="C4" s="3" t="n">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>34.74</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>B0</t>
+        <v>9.220000000000001</v>
+      </c>
+      <c r="H4" s="3" t="inlineStr">
+        <is>
+          <t>B+</t>
         </is>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1" s="2">
       <c r="A5" s="3" t="n">
-        <v>20140004</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Olivia</t>
+          <t>hos</t>
         </is>
       </c>
       <c r="C5" s="3" t="n">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G5" s="3" t="n">
-        <v>82.38</v>
-      </c>
-      <c r="H5" t="inlineStr">
+        <v>10.9</v>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
         <is>
           <t>A0</t>
         </is>
@@ -619,29 +619,29 @@
     </row>
     <row r="6" ht="12.75" customHeight="1" s="2">
       <c r="A6" s="3" t="n">
-        <v>20200988</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Hajin</t>
+          <t>ekf</t>
         </is>
       </c>
       <c r="C6" s="3" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G6" s="3" t="n">
-        <v>55.02</v>
-      </c>
-      <c r="H6" t="inlineStr">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="H6" s="3" t="inlineStr">
         <is>
           <t>B0</t>
         </is>
@@ -649,59 +649,59 @@
     </row>
     <row r="7" ht="12.75" customHeight="1" s="2">
       <c r="A7" s="3" t="n">
-        <v>20150001</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Isla</t>
+          <t>ej</t>
         </is>
       </c>
       <c r="C7" s="3" t="n">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="3" t="n">
-        <v>58.51000000000001</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>A0</t>
+        <v>9.210000000000001</v>
+      </c>
+      <c r="H7" s="3" t="inlineStr">
+        <is>
+          <t>B+</t>
         </is>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1" s="2">
       <c r="A8" s="3" t="n">
-        <v>20204920</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Amelia</t>
+          <t>lae</t>
         </is>
       </c>
       <c r="C8" s="3" t="n">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="3" t="n">
-        <v>38.13</v>
-      </c>
-      <c r="H8" t="inlineStr">
+        <v>9.02</v>
+      </c>
+      <c r="H8" s="3" t="inlineStr">
         <is>
           <t>B0</t>
         </is>
@@ -709,29 +709,29 @@
     </row>
     <row r="9" ht="12.75" customHeight="1" s="2">
       <c r="A9" s="3" t="n">
-        <v>20201942</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>gildong</t>
+          <t>lee</t>
         </is>
       </c>
       <c r="C9" s="3" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F9" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G9" s="3" t="n">
-        <v>25.81</v>
-      </c>
-      <c r="H9" t="inlineStr">
+        <v>6.95</v>
+      </c>
+      <c r="H9" s="3" t="inlineStr">
         <is>
           <t>C0</t>
         </is>
@@ -739,124 +739,66 @@
     </row>
     <row r="10" ht="12.75" customHeight="1" s="2">
       <c r="A10" s="3" t="n">
-        <v>20200042</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>sman</t>
+          <t>park</t>
         </is>
       </c>
       <c r="C10" s="3" t="n">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="F10" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G10" s="3" t="n">
-        <v>61.64</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>A0</t>
+        <v>8.68</v>
+      </c>
+      <c r="H10" s="3" t="inlineStr">
+        <is>
+          <t>C+</t>
         </is>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1" s="2">
       <c r="A11" s="3" t="n">
-        <v>20200123</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>one</t>
+          <t>son</t>
         </is>
       </c>
       <c r="C11" s="3" t="n">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="3" t="n">
-        <v>28.23</v>
-      </c>
-      <c r="H11" t="inlineStr">
+        <v>7.82</v>
+      </c>
+      <c r="H11" s="3" t="inlineStr">
         <is>
           <t>C0</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="12.75" customHeight="1" s="2">
-      <c r="A12" s="3" t="n">
-        <v>20208080</v>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>two</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="n">
-        <v>30</v>
-      </c>
-      <c r="D12" s="3" t="n">
-        <v>30</v>
-      </c>
-      <c r="E12" s="3" t="n">
-        <v>30</v>
-      </c>
-      <c r="F12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>C0</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="12.75" customHeight="1" s="2">
-      <c r="A13" s="3" t="n">
-        <v>20208402</v>
-      </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>three</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="n">
-        <v>30</v>
-      </c>
-      <c r="D13" s="3" t="n">
-        <v>30</v>
-      </c>
-      <c r="E13" s="3" t="n">
-        <v>30</v>
-      </c>
-      <c r="F13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>C0</t>
-        </is>
-      </c>
-    </row>
+    <row r="12" ht="12.75" customHeight="1" s="2"/>
+    <row r="13" ht="12.75" customHeight="1" s="2"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
